--- a/Data/Fjord Control Online Cloud/Fjord Control Online Cloud 3.xlsx
+++ b/Data/Fjord Control Online Cloud/Fjord Control Online Cloud 3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trond\Documents\GitHub\NexusConfigTool\Data\Fjord Control Online Cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\NexusConfigTool\Data\Fjord Control Online Cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389217BD-C1A0-4E59-9FC6-46C3CC9EE90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B664EDA4-0EFF-4A62-8EF7-EF4782C7F134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="975" windowWidth="22815" windowHeight="15315" xr2:uid="{2AFDB3F9-7096-4B8B-A6E1-68004C62B53C}"/>
+    <workbookView xWindow="1170" yWindow="675" windowWidth="21600" windowHeight="11295" xr2:uid="{2AFDB3F9-7096-4B8B-A6E1-68004C62B53C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fjord Control Online" sheetId="1" r:id="rId1"/>
+    <sheet name="Fjord Control Online Cloud" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -584,18 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -608,7 +596,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H4"/>
+      <selection activeCell="D20" activeCellId="1" sqref="C4:H4 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,14 +1022,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1040,80 +1040,80 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
       <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="J6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8">
+      <c r="B7" s="9"/>
+      <c r="C7" s="13">
         <v>2000</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="J7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1730,17 +1730,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J4 J206:J1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
